--- a/fuentes/contenidos/grado06/guion04/CS_06_04_CO_REC230_SolicitudGrafica.xlsx
+++ b/fuentes/contenidos/grado06/guion04/CS_06_04_CO_REC230_SolicitudGrafica.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="195">
   <si>
     <t>Fecha:</t>
   </si>
@@ -595,6 +595,18 @@
   </si>
   <si>
     <t>CS_06_04_CO_REC230</t>
+  </si>
+  <si>
+    <t>Estatua de buda</t>
+  </si>
+  <si>
+    <t>Templo Buda</t>
+  </si>
+  <si>
+    <t>Sendero a la iluminación</t>
+  </si>
+  <si>
+    <t>Niños budistas leyendo</t>
   </si>
 </sst>
 </file>
@@ -2372,17 +2384,17 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
@@ -2456,7 +2468,7 @@
       </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80">
-        <v>42445</v>
+        <v>42449</v>
       </c>
       <c r="G3" s="81"/>
       <c r="H3" s="58"/>
@@ -2696,7 +2708,9 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="63" t="s">
+        <v>191</v>
+      </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -2737,7 +2751,9 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="64" t="s">
+        <v>192</v>
+      </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
@@ -2778,7 +2794,9 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J12" s="64"/>
+      <c r="J12" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
@@ -2819,7 +2837,9 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
